--- a/biology/Microbiologie/Deltaproteobacteria/Deltaproteobacteria.xlsx
+++ b/biology/Microbiologie/Deltaproteobacteria/Deltaproteobacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Deltaproteobacteria (en français les Deltaprotéobactéries) sont une classe de bactéries à Gram négatif de l'embranchement des Pseudomonadota. Son nom, formé sur les mots grecs delta (δέλτα : quatrième lettre de l'alphabet) et Proteus (Προτεύς : Protée, dieu capable de se métamorphoser) complétés du néolatin bacteria (bactérie), n'est exceptionnellement pas dérivé du nom de son ordre type Myxococcales.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon est décrit en 2006 par J. Kuever et al. dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[1]. Il est validé la même année par une publication dans l'IJSEM[2].
-En 2020, s'appuyant sur un séquençage des gènes de l'ARN ribosomique et de 120 gènes marqueurs non dupliqués, D.W. Waite et al. réfutent la monophylie des Deltaproteobacteria et leur inclusion dans l'embranchement des Proteobacteria (devenu Pseudomonadota)[3]. Ces auteurs proposent de réorganiser le groupe « Deltaproteobacteria-Oligoflexia-Thermodesulfurobacteria » en le subdivisant en quatre nouveaux embranchements : Bdellovibrionota, Desulfurobacterota, Myxococcota et un quatrième taxon nommé provisoirement « SAR324 ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est décrit en 2006 par J. Kuever et al. dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Il est validé la même année par une publication dans l'IJSEM.
+En 2020, s'appuyant sur un séquençage des gènes de l'ARN ribosomique et de 120 gènes marqueurs non dupliqués, D.W. Waite et al. réfutent la monophylie des Deltaproteobacteria et leur inclusion dans l'embranchement des Proteobacteria (devenu Pseudomonadota). Ces auteurs proposent de réorganiser le groupe « Deltaproteobacteria-Oligoflexia-Thermodesulfurobacteria » en le subdivisant en quatre nouveaux embranchements : Bdellovibrionota, Desulfurobacterota, Myxococcota et un quatrième taxon nommé provisoirement « SAR324 ».
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ordres validement publiés
-Selon la LPSN  (3 décembre 2022)[4] :
+          <t>Ordres validement publiés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (3 décembre 2022) :
  Bradymonadales Wang et al. 2015
  Deferrisomatales Waite et al. 2020
  Desulfarculales corrig. Kuever et al. 2006
@@ -559,8 +578,43 @@
  Syntrophobacterales Kuever et al. 2006
  Syntrophorhabdales Waite et al. 2020
 L'ordre des Bdellovibrionales a été reclassé dans la classe des Oligoflexia (même embranchement).
-Ordres en attente de publication valide
-Selon la LPSN  (3 décembre 2022)[4] les ordres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'ordres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ordres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (3 décembre 2022) les ordres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
 « Ca. Acidulidesulfobacterales » corrig. Tan et al. 2019
 « Ca. Adiutricales » Waite et al. 2020
 « Ca. Desulfofervidales » Waite et al. 2020</t>
